--- a/Экономика/2.2. Определение годовых текущих затрат, связанных с эксплуатацией задачи.xlsx
+++ b/Экономика/2.2. Определение годовых текущих затрат, связанных с эксплуатацией задачи.xlsx
@@ -1832,14 +1832,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="4">
+          <cell r="C4">
+            <v>687817559.76470602</v>
+          </cell>
+        </row>
         <row r="10">
           <cell r="I10">
             <v>6836.2352941176468</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1861,8 +1866,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1879,13 +1884,13 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="20">
-          <cell r="G20">
-            <v>2500</v>
+          <cell r="I20">
+            <v>10000</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2180,12 +2185,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
     <col min="23" max="23" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2231,8 +2238,8 @@
         <v>1</v>
       </c>
       <c r="W3" s="4">
-        <f>[3]Лист1!G20</f>
-        <v>2500</v>
+        <f>[3]Лист1!I20</f>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -2373,7 +2380,7 @@
       </c>
       <c r="C15" s="1">
         <f>C5*C16*C17*(1+C18)*(1+C19)*(1+C20)</f>
-        <v>95205413.897431388</v>
+        <v>380821655.58972555</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" t="s">
@@ -2384,7 +2391,7 @@
       </c>
       <c r="J15" s="1">
         <f>C5*J16*J17</f>
-        <v>26652561.718750004</v>
+        <v>106610246.87500001</v>
       </c>
       <c r="L15" s="2"/>
     </row>
@@ -2397,7 +2404,7 @@
       </c>
       <c r="C16" s="4">
         <f>W3</f>
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" t="s">
@@ -2408,7 +2415,7 @@
       </c>
       <c r="J16" s="4">
         <f>W3</f>
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="L16" s="2"/>
     </row>
@@ -2508,7 +2515,7 @@
       </c>
       <c r="C26" s="1">
         <f>C15+J15</f>
-        <v>121857975.61618139</v>
+        <v>487431902.46472555</v>
       </c>
       <c r="G26" s="2"/>
     </row>
